--- a/xlsx/重商主义_intext.xlsx
+++ b/xlsx/重商主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>重商主义</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>三角貿易</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_重商主义</t>
+    <t>三角贸易</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_重商主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E7%95%AB</t>
   </si>
   <si>
-    <t>油畫</t>
+    <t>油画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E9%A4%98%E9%A1%8D</t>
   </si>
   <si>
-    <t>貿易餘額</t>
+    <t>贸易馀额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E7%88%BE%E7%89%B9</t>
   </si>
   <si>
-    <t>斯圖爾特</t>
+    <t>斯图尔特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>貨幣主義</t>
+    <t>货币主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%86%9C%E5%AD%A6%E6%B4%BE</t>
@@ -173,45 +173,42 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利學派</t>
+    <t>奥地利学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>貴金屬</t>
+    <t>贵金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91</t>
   </si>
   <si>
-    <t>黃金</t>
+    <t>黄金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%8A%80</t>
   </si>
   <si>
-    <t>白銀</t>
+    <t>白银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E9%87%91%E5%B1%9E</t>
   </si>
   <si>
-    <t>贵金属</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93</t>
   </si>
   <si>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國際關係現實主義</t>
+    <t>国际关系现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AD%A6%E6%B4%BE</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>經濟歷史學派</t>
+    <t>经济历史学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>洛桑學派</t>
+    <t>洛桑学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國有社會主義</t>
+    <t>国有社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E4%B8%96%E7%BA%AA</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carnegie_School</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -443,13 +440,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>货币主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%88%B6%E5%BA%A6%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新制度經濟學</t>
+    <t>新制度经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -461,25 +455,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>熱經濟學</t>
+    <t>热经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neo-Marxian_economics</t>
@@ -491,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新古典主義經濟學</t>
+    <t>新古典主义经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興古典經濟學派</t>
+    <t>新兴古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -509,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新凱恩斯學派</t>
+    <t>新凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B4%E5%87%AF%E6%81%A9%E6%96%AF%E5%AD%A6%E6%B4%BE</t>
@@ -527,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>主流經濟學</t>
+    <t>主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>非主流經濟學</t>
+    <t>非主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1862,7 @@
         <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1894,10 +1888,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>12</v>
@@ -1923,10 +1917,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1952,10 +1946,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1981,10 +1975,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -2010,10 +2004,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2039,10 +2033,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2068,10 +2062,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2097,10 +2091,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2126,10 +2120,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2155,10 +2149,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2184,10 +2178,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2213,10 +2207,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2242,10 +2236,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2271,10 +2265,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2300,10 +2294,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2329,10 +2323,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2358,10 +2352,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
@@ -2387,10 +2381,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -2416,10 +2410,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2445,10 +2439,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2474,10 +2468,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2503,10 +2497,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2532,10 +2526,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2561,10 +2555,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2590,10 +2584,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2619,10 +2613,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2648,10 +2642,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2677,10 +2671,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2706,10 +2700,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2735,10 +2729,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2764,10 +2758,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2793,10 +2787,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>21</v>
@@ -2822,10 +2816,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2851,10 +2845,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2880,10 +2874,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2909,10 +2903,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2938,10 +2932,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2967,10 +2961,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2996,10 +2990,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3025,10 +3019,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3054,10 +3048,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3083,10 +3077,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3112,10 +3106,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3141,10 +3135,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3170,10 +3164,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3199,10 +3193,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3228,10 +3222,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3257,10 +3251,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3286,10 +3280,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -3315,10 +3309,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3344,10 +3338,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3373,10 +3367,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3402,10 +3396,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3431,10 +3425,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3460,10 +3454,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3489,10 +3483,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3518,10 +3512,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3547,10 +3541,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3576,10 +3570,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3605,10 +3599,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>

--- a/xlsx/重商主义_intext.xlsx
+++ b/xlsx/重商主义_intext.xlsx
@@ -29,7 +29,7 @@
     <t>三角貿易</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_重商主义</t>
+    <t>体育运动_体育运动_黑人_重商主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF</t>
@@ -2799,7 +2799,7 @@
         <v>128</v>
       </c>
       <c r="G65" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
